--- a/files/database/db_monitors.xlsx
+++ b/files/database/db_monitors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAROLJ\Downloads\morning_allocation-main\morning_allocation-main\files\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaya/Desktop/morning_allocation/files/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB088E12-584A-4938-A6F3-76F6D336B0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C125D75F-E92B-7148-947C-DD580BCDC92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59B8CB5E-60A5-4A68-8CEA-5287F6A3B27A}"/>
+    <workbookView xWindow="5760" yWindow="22100" windowWidth="28800" windowHeight="16540" xr2:uid="{59B8CB5E-60A5-4A68-8CEA-5287F6A3B27A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1890,24 +1890,24 @@
   <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2123,7 +2123,9 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" t="s">
         <v>460</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2315,7 +2317,9 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3"/>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2505,7 +2509,9 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D4"/>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2695,7 +2701,9 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
         <v>220</v>
       </c>
@@ -2875,7 +2883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2885,7 +2893,9 @@
       <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="D6"/>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" t="s">
         <v>220</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +3085,9 @@
       <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="D7"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>220</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3265,7 +3277,9 @@
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
@@ -3445,7 +3459,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -3455,7 +3469,9 @@
       <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="D9"/>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -3635,7 +3651,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3645,7 +3661,9 @@
       <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="D10"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" t="s">
         <v>220</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3835,7 +3853,9 @@
       <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="D11"/>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" t="s">
         <v>220</v>
       </c>
@@ -4015,7 +4035,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -4025,7 +4045,9 @@
       <c r="C12" t="s">
         <v>102</v>
       </c>
-      <c r="D12"/>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
@@ -4205,7 +4227,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -4215,7 +4237,9 @@
       <c r="C13" t="s">
         <v>103</v>
       </c>
-      <c r="D13"/>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" t="s">
         <v>212</v>
       </c>
@@ -4395,7 +4419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -4405,7 +4429,9 @@
       <c r="C14" t="s">
         <v>104</v>
       </c>
-      <c r="D14"/>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14" t="s">
         <v>220</v>
       </c>
@@ -4585,7 +4611,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4595,7 +4621,9 @@
       <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="D15"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" t="s">
         <v>461</v>
       </c>
@@ -4789,7 +4817,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4799,7 +4827,9 @@
       <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="D16"/>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" t="s">
         <v>220</v>
       </c>
@@ -4983,7 +5013,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -4993,7 +5023,9 @@
       <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D17"/>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -5187,7 +5219,9 @@
       <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="D18"/>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18" t="s">
         <v>462</v>
       </c>
@@ -5371,7 +5405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -5381,7 +5415,9 @@
       <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D19"/>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
@@ -5565,7 +5601,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -5575,7 +5611,9 @@
       <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="D20"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" t="s">
         <v>220</v>
       </c>
@@ -5759,7 +5797,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -5769,7 +5807,9 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D21"/>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21" t="s">
         <v>463</v>
       </c>
@@ -5955,7 +5995,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -5965,7 +6005,9 @@
       <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="D22"/>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22" t="s">
         <v>461</v>
       </c>
@@ -6159,7 +6201,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -6169,7 +6211,9 @@
       <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="D23"/>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23" t="s">
         <v>464</v>
       </c>
@@ -6351,7 +6395,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -6361,7 +6405,9 @@
       <c r="C24" t="s">
         <v>113</v>
       </c>
-      <c r="D24"/>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" t="s">
         <v>220</v>
       </c>
@@ -6545,7 +6591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6555,7 +6601,9 @@
       <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="D25"/>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
@@ -6739,7 +6787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -6749,7 +6797,9 @@
       <c r="C26" t="s">
         <v>115</v>
       </c>
-      <c r="D26"/>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
@@ -6933,7 +6983,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -6943,7 +6993,9 @@
       <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="D27"/>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" t="s">
         <v>220</v>
       </c>
@@ -7127,7 +7179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -7137,7 +7189,9 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28"/>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28" t="s">
         <v>59</v>
       </c>
@@ -7321,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -7331,7 +7385,9 @@
       <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="D29"/>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29" t="s">
         <v>220</v>
       </c>
@@ -7515,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -7525,7 +7581,9 @@
       <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="D30"/>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30" t="s">
         <v>220</v>
       </c>
@@ -7709,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -7719,7 +7777,9 @@
       <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="D31"/>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31" t="s">
         <v>220</v>
       </c>
@@ -7903,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -7913,7 +7973,9 @@
       <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="D32"/>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32" t="s">
         <v>220</v>
       </c>
@@ -8097,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -8107,7 +8169,9 @@
       <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="D33"/>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33" t="s">
         <v>220</v>
       </c>
@@ -8291,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -8300,6 +8364,9 @@
       </c>
       <c r="C34" t="s">
         <v>100</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>220</v>
@@ -8484,7 +8551,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -8493,6 +8560,9 @@
       </c>
       <c r="C35" t="s">
         <v>122</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>220</v>
@@ -8677,7 +8747,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -8687,7 +8757,9 @@
       <c r="C36" t="s">
         <v>123</v>
       </c>
-      <c r="D36"/>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
@@ -8871,7 +8943,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -8881,7 +8953,9 @@
       <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="D37"/>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37" t="s">
         <v>220</v>
       </c>
@@ -9065,7 +9139,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -9074,6 +9148,9 @@
       </c>
       <c r="C38" t="s">
         <v>99</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -9258,7 +9335,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -9268,7 +9345,9 @@
       <c r="C39" t="s">
         <v>98</v>
       </c>
-      <c r="D39"/>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
@@ -9452,7 +9531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -9462,7 +9541,9 @@
       <c r="C40" t="s">
         <v>106</v>
       </c>
-      <c r="D40"/>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40" t="s">
         <v>220</v>
       </c>
@@ -9646,7 +9727,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -9656,7 +9737,9 @@
       <c r="C41" t="s">
         <v>124</v>
       </c>
-      <c r="D41"/>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41" t="s">
         <v>220</v>
       </c>
@@ -9840,7 +9923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -9850,7 +9933,9 @@
       <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="D42"/>
+      <c r="D42">
+        <v>0</v>
+      </c>
       <c r="E42" t="s">
         <v>220</v>
       </c>
@@ -10034,7 +10119,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -10044,7 +10129,9 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="D43"/>
+      <c r="D43">
+        <v>0</v>
+      </c>
       <c r="E43" t="s">
         <v>220</v>
       </c>
@@ -10228,7 +10315,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -10238,7 +10325,9 @@
       <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="D44"/>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
@@ -10422,7 +10511,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -10432,7 +10521,9 @@
       <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="D45"/>
+      <c r="D45">
+        <v>0</v>
+      </c>
       <c r="E45" t="s">
         <v>220</v>
       </c>
@@ -10616,7 +10707,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -10626,7 +10717,9 @@
       <c r="C46" t="s">
         <v>128</v>
       </c>
-      <c r="D46"/>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46" t="s">
         <v>220</v>
       </c>
@@ -10810,7 +10903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -10820,7 +10913,9 @@
       <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="D47"/>
+      <c r="D47">
+        <v>0</v>
+      </c>
       <c r="E47" t="s">
         <v>460</v>
       </c>
@@ -11008,7 +11103,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -11018,7 +11113,9 @@
       <c r="C48" t="s">
         <v>129</v>
       </c>
-      <c r="D48"/>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48" t="s">
         <v>220</v>
       </c>
@@ -11202,7 +11299,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -11212,7 +11309,9 @@
       <c r="C49" t="s">
         <v>130</v>
       </c>
-      <c r="D49"/>
+      <c r="D49">
+        <v>0</v>
+      </c>
       <c r="E49" t="s">
         <v>220</v>
       </c>
@@ -11396,7 +11495,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -11406,7 +11505,9 @@
       <c r="C50" t="s">
         <v>131</v>
       </c>
-      <c r="D50"/>
+      <c r="D50">
+        <v>0</v>
+      </c>
       <c r="E50" t="s">
         <v>220</v>
       </c>
@@ -11590,7 +11691,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -11600,7 +11701,9 @@
       <c r="C51" t="s">
         <v>132</v>
       </c>
-      <c r="D51"/>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="E51" t="s">
         <v>220</v>
       </c>
@@ -11784,7 +11887,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -11794,7 +11897,9 @@
       <c r="C52" t="s">
         <v>94</v>
       </c>
-      <c r="D52"/>
+      <c r="D52">
+        <v>0</v>
+      </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
@@ -11978,7 +12083,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -11988,7 +12093,9 @@
       <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53"/>
+      <c r="D53">
+        <v>0</v>
+      </c>
       <c r="E53" t="s">
         <v>220</v>
       </c>
@@ -12172,7 +12279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -12182,7 +12289,9 @@
       <c r="C54" t="s">
         <v>134</v>
       </c>
-      <c r="D54"/>
+      <c r="D54">
+        <v>0</v>
+      </c>
       <c r="E54" t="s">
         <v>220</v>
       </c>
@@ -12366,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -12376,7 +12485,9 @@
       <c r="C55" t="s">
         <v>95</v>
       </c>
-      <c r="D55"/>
+      <c r="D55">
+        <v>0</v>
+      </c>
       <c r="E55" t="s">
         <v>220</v>
       </c>
@@ -12560,7 +12671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -12570,7 +12681,9 @@
       <c r="C56" t="s">
         <v>96</v>
       </c>
-      <c r="D56"/>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56" t="s">
         <v>220</v>
       </c>
@@ -12754,7 +12867,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -12764,7 +12877,9 @@
       <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="D57"/>
+      <c r="D57">
+        <v>0</v>
+      </c>
       <c r="E57" t="s">
         <v>460</v>
       </c>
@@ -12952,14 +13067,16 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>135</v>
       </c>
-      <c r="D58"/>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58" t="s">
         <v>29</v>
       </c>
@@ -13143,7 +13260,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -13153,7 +13270,9 @@
       <c r="C59" t="s">
         <v>102</v>
       </c>
-      <c r="D59"/>
+      <c r="D59">
+        <v>0</v>
+      </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
@@ -13337,7 +13456,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -13347,7 +13466,9 @@
       <c r="C60" t="s">
         <v>99</v>
       </c>
-      <c r="D60"/>
+      <c r="D60">
+        <v>0</v>
+      </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
@@ -13531,7 +13652,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -13541,7 +13662,9 @@
       <c r="C61" t="s">
         <v>104</v>
       </c>
-      <c r="D61"/>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61" t="s">
         <v>220</v>
       </c>
@@ -13725,7 +13848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -13735,7 +13858,9 @@
       <c r="C62" t="s">
         <v>101</v>
       </c>
-      <c r="D62"/>
+      <c r="D62">
+        <v>0</v>
+      </c>
       <c r="E62" t="s">
         <v>220</v>
       </c>
@@ -13919,7 +14044,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -13929,7 +14054,9 @@
       <c r="C63" t="s">
         <v>106</v>
       </c>
-      <c r="D63"/>
+      <c r="D63">
+        <v>0</v>
+      </c>
       <c r="E63" t="s">
         <v>220</v>
       </c>
@@ -14113,7 +14240,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -14123,7 +14250,9 @@
       <c r="C64" t="s">
         <v>97</v>
       </c>
-      <c r="D64"/>
+      <c r="D64">
+        <v>0</v>
+      </c>
       <c r="E64" t="s">
         <v>220</v>
       </c>
@@ -14307,7 +14436,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -14317,7 +14446,9 @@
       <c r="C65" t="s">
         <v>122</v>
       </c>
-      <c r="D65"/>
+      <c r="D65">
+        <v>0</v>
+      </c>
       <c r="E65" t="s">
         <v>220</v>
       </c>
@@ -14493,7 +14624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -14503,7 +14634,9 @@
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="D66"/>
+      <c r="D66">
+        <v>0</v>
+      </c>
       <c r="E66" t="s">
         <v>220</v>
       </c>
@@ -14687,7 +14820,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -14697,7 +14830,9 @@
       <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="D67"/>
+      <c r="D67">
+        <v>0</v>
+      </c>
       <c r="E67" t="s">
         <v>465</v>
       </c>
@@ -14881,7 +15016,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -14891,7 +15026,9 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68"/>
+      <c r="D68">
+        <v>0</v>
+      </c>
       <c r="E68" t="s">
         <v>466</v>
       </c>
@@ -15077,7 +15214,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -15087,7 +15224,9 @@
       <c r="C69" t="s">
         <v>140</v>
       </c>
-      <c r="D69"/>
+      <c r="D69">
+        <v>0</v>
+      </c>
       <c r="E69" t="s">
         <v>467</v>
       </c>
@@ -15275,7 +15414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -15285,7 +15424,9 @@
       <c r="C70" t="s">
         <v>105</v>
       </c>
-      <c r="D70"/>
+      <c r="D70">
+        <v>0</v>
+      </c>
       <c r="E70" t="s">
         <v>461</v>
       </c>
@@ -15479,7 +15620,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -15489,7 +15630,9 @@
       <c r="C71" t="s">
         <v>202</v>
       </c>
-      <c r="D71"/>
+      <c r="D71">
+        <v>0</v>
+      </c>
       <c r="E71" t="s">
         <v>220</v>
       </c>
@@ -15673,7 +15816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -15683,7 +15826,9 @@
       <c r="C72" t="s">
         <v>112</v>
       </c>
-      <c r="D72"/>
+      <c r="D72">
+        <v>0</v>
+      </c>
       <c r="E72" t="s">
         <v>468</v>
       </c>
@@ -15867,7 +16012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -15877,7 +16022,9 @@
       <c r="C73" t="s">
         <v>146</v>
       </c>
-      <c r="D73"/>
+      <c r="D73">
+        <v>0</v>
+      </c>
       <c r="E73" t="s">
         <v>220</v>
       </c>
@@ -16061,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -16071,7 +16218,9 @@
       <c r="C74" t="s">
         <v>138</v>
       </c>
-      <c r="D74"/>
+      <c r="D74">
+        <v>0</v>
+      </c>
       <c r="E74" t="s">
         <v>469</v>
       </c>
@@ -16259,7 +16408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -16269,7 +16418,9 @@
       <c r="C75" t="s">
         <v>100</v>
       </c>
-      <c r="D75"/>
+      <c r="D75">
+        <v>0</v>
+      </c>
       <c r="E75" t="s">
         <v>220</v>
       </c>
@@ -16453,7 +16604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -16463,7 +16614,9 @@
       <c r="C76" t="s">
         <v>103</v>
       </c>
-      <c r="D76"/>
+      <c r="D76">
+        <v>0</v>
+      </c>
       <c r="E76" t="s">
         <v>212</v>
       </c>
@@ -16647,7 +16800,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -16657,7 +16810,9 @@
       <c r="C77" t="s">
         <v>125</v>
       </c>
-      <c r="D77"/>
+      <c r="D77">
+        <v>0</v>
+      </c>
       <c r="E77" t="s">
         <v>220</v>
       </c>
@@ -16841,7 +16996,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -16851,7 +17006,9 @@
       <c r="C78" t="s">
         <v>116</v>
       </c>
-      <c r="D78"/>
+      <c r="D78">
+        <v>0</v>
+      </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
@@ -17035,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -17045,7 +17202,9 @@
       <c r="C79" t="s">
         <v>139</v>
       </c>
-      <c r="D79"/>
+      <c r="D79">
+        <v>0</v>
+      </c>
       <c r="E79" t="s">
         <v>213</v>
       </c>
@@ -17229,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -17239,7 +17398,9 @@
       <c r="C80" t="s">
         <v>100</v>
       </c>
-      <c r="D80"/>
+      <c r="D80">
+        <v>0</v>
+      </c>
       <c r="E80" t="s">
         <v>220</v>
       </c>
@@ -17423,7 +17584,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -17433,7 +17594,9 @@
       <c r="C81" t="s">
         <v>140</v>
       </c>
-      <c r="D81"/>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="E81" t="s">
         <v>467</v>
       </c>
@@ -17621,7 +17784,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -17631,7 +17794,9 @@
       <c r="C82" t="s">
         <v>141</v>
       </c>
-      <c r="D82"/>
+      <c r="D82">
+        <v>0</v>
+      </c>
       <c r="E82" t="s">
         <v>220</v>
       </c>
@@ -17815,7 +17980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -17825,7 +17990,9 @@
       <c r="C83" t="s">
         <v>142</v>
       </c>
-      <c r="D83"/>
+      <c r="D83">
+        <v>0</v>
+      </c>
       <c r="E83" t="s">
         <v>220</v>
       </c>
@@ -18009,7 +18176,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -18019,7 +18186,9 @@
       <c r="C84" t="s">
         <v>143</v>
       </c>
-      <c r="D84"/>
+      <c r="D84">
+        <v>0</v>
+      </c>
       <c r="E84" t="s">
         <v>220</v>
       </c>
@@ -18203,7 +18372,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -18213,7 +18382,9 @@
       <c r="C85" t="s">
         <v>129</v>
       </c>
-      <c r="D85"/>
+      <c r="D85">
+        <v>0</v>
+      </c>
       <c r="E85" t="s">
         <v>220</v>
       </c>
@@ -18397,7 +18568,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -18407,7 +18578,9 @@
       <c r="C86" t="s">
         <v>144</v>
       </c>
-      <c r="D86"/>
+      <c r="D86">
+        <v>0</v>
+      </c>
       <c r="E86" t="s">
         <v>220</v>
       </c>
@@ -18591,7 +18764,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -18601,7 +18774,9 @@
       <c r="C87" t="s">
         <v>145</v>
       </c>
-      <c r="D87"/>
+      <c r="D87">
+        <v>0</v>
+      </c>
       <c r="E87" t="s">
         <v>220</v>
       </c>
@@ -18785,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -18795,7 +18970,9 @@
       <c r="C88" t="s">
         <v>146</v>
       </c>
-      <c r="D88"/>
+      <c r="D88">
+        <v>0</v>
+      </c>
       <c r="E88" t="s">
         <v>220</v>
       </c>
@@ -18979,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -18989,7 +19166,9 @@
       <c r="C89" t="s">
         <v>147</v>
       </c>
-      <c r="D89"/>
+      <c r="D89">
+        <v>0</v>
+      </c>
       <c r="E89" t="s">
         <v>220</v>
       </c>
@@ -19173,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -19183,7 +19362,9 @@
       <c r="C90" t="s">
         <v>201</v>
       </c>
-      <c r="D90"/>
+      <c r="D90">
+        <v>0</v>
+      </c>
       <c r="E90" t="s">
         <v>220</v>
       </c>
@@ -19359,7 +19540,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>229</v>
       </c>
@@ -19369,7 +19550,9 @@
       <c r="C91" t="s">
         <v>148</v>
       </c>
-      <c r="D91"/>
+      <c r="D91">
+        <v>0</v>
+      </c>
       <c r="E91" t="s">
         <v>470</v>
       </c>
@@ -19555,7 +19738,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -19565,7 +19748,9 @@
       <c r="C92" t="s">
         <v>149</v>
       </c>
-      <c r="D92"/>
+      <c r="D92">
+        <v>0</v>
+      </c>
       <c r="E92" t="s">
         <v>471</v>
       </c>
@@ -19751,7 +19936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -19761,7 +19946,9 @@
       <c r="C93" t="s">
         <v>135</v>
       </c>
-      <c r="D93"/>
+      <c r="D93">
+        <v>0</v>
+      </c>
       <c r="E93" t="s">
         <v>29</v>
       </c>
@@ -19945,7 +20132,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -19955,7 +20142,9 @@
       <c r="C94" t="s">
         <v>150</v>
       </c>
-      <c r="D94"/>
+      <c r="D94">
+        <v>0</v>
+      </c>
       <c r="E94" t="s">
         <v>220</v>
       </c>
@@ -20139,7 +20328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -20149,7 +20338,9 @@
       <c r="C95" t="s">
         <v>151</v>
       </c>
-      <c r="D95"/>
+      <c r="D95">
+        <v>0</v>
+      </c>
       <c r="E95" t="s">
         <v>472</v>
       </c>
@@ -20333,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -20343,7 +20534,9 @@
       <c r="C96" t="s">
         <v>152</v>
       </c>
-      <c r="D96"/>
+      <c r="D96">
+        <v>0</v>
+      </c>
       <c r="E96" t="s">
         <v>34</v>
       </c>
@@ -20527,7 +20720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>229</v>
       </c>
@@ -20537,7 +20730,9 @@
       <c r="C97" t="s">
         <v>153</v>
       </c>
-      <c r="D97"/>
+      <c r="D97">
+        <v>0</v>
+      </c>
       <c r="E97" t="s">
         <v>35</v>
       </c>
@@ -20721,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -20731,7 +20926,9 @@
       <c r="C98" t="s">
         <v>100</v>
       </c>
-      <c r="D98"/>
+      <c r="D98">
+        <v>0</v>
+      </c>
       <c r="E98" t="s">
         <v>220</v>
       </c>
@@ -20915,7 +21112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -20925,7 +21122,9 @@
       <c r="C99" t="s">
         <v>154</v>
       </c>
-      <c r="D99"/>
+      <c r="D99">
+        <v>0</v>
+      </c>
       <c r="E99" t="s">
         <v>39</v>
       </c>
@@ -21109,7 +21308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -21119,7 +21318,9 @@
       <c r="C100" t="s">
         <v>124</v>
       </c>
-      <c r="D100"/>
+      <c r="D100">
+        <v>0</v>
+      </c>
       <c r="E100" t="s">
         <v>220</v>
       </c>
@@ -21303,7 +21504,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -21313,7 +21514,9 @@
       <c r="C101" t="s">
         <v>93</v>
       </c>
-      <c r="D101"/>
+      <c r="D101">
+        <v>0</v>
+      </c>
       <c r="E101" t="s">
         <v>19</v>
       </c>
@@ -21497,7 +21700,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -21507,7 +21710,9 @@
       <c r="C102" t="s">
         <v>155</v>
       </c>
-      <c r="D102"/>
+      <c r="D102">
+        <v>0</v>
+      </c>
       <c r="E102" t="s">
         <v>214</v>
       </c>
@@ -21691,7 +21896,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -21701,7 +21906,9 @@
       <c r="C103" t="s">
         <v>156</v>
       </c>
-      <c r="D103"/>
+      <c r="D103">
+        <v>0</v>
+      </c>
       <c r="E103" t="s">
         <v>220</v>
       </c>
@@ -21885,7 +22092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -21895,7 +22102,9 @@
       <c r="C104" t="s">
         <v>157</v>
       </c>
-      <c r="D104"/>
+      <c r="D104">
+        <v>0</v>
+      </c>
       <c r="E104" t="s">
         <v>220</v>
       </c>
@@ -22079,7 +22288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -22089,7 +22298,9 @@
       <c r="C105" t="s">
         <v>158</v>
       </c>
-      <c r="D105"/>
+      <c r="D105">
+        <v>0</v>
+      </c>
       <c r="E105" t="s">
         <v>36</v>
       </c>
@@ -22273,7 +22484,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -22283,7 +22494,9 @@
       <c r="C106" t="s">
         <v>159</v>
       </c>
-      <c r="D106"/>
+      <c r="D106">
+        <v>0</v>
+      </c>
       <c r="E106" t="s">
         <v>220</v>
       </c>
@@ -22467,7 +22680,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -22477,7 +22690,9 @@
       <c r="C107" t="s">
         <v>160</v>
       </c>
-      <c r="D107"/>
+      <c r="D107">
+        <v>0</v>
+      </c>
       <c r="E107" t="s">
         <v>473</v>
       </c>
@@ -22663,7 +22878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -22673,7 +22888,9 @@
       <c r="C108" t="s">
         <v>161</v>
       </c>
-      <c r="D108"/>
+      <c r="D108">
+        <v>0</v>
+      </c>
       <c r="E108" t="s">
         <v>37</v>
       </c>
@@ -22857,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -22867,7 +23084,9 @@
       <c r="C109" t="s">
         <v>107</v>
       </c>
-      <c r="D109"/>
+      <c r="D109">
+        <v>0</v>
+      </c>
       <c r="E109" t="s">
         <v>39</v>
       </c>
@@ -23051,7 +23270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -23061,7 +23280,9 @@
       <c r="C110" t="s">
         <v>162</v>
       </c>
-      <c r="D110"/>
+      <c r="D110">
+        <v>0</v>
+      </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
@@ -23245,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -23255,7 +23476,9 @@
       <c r="C111" t="s">
         <v>163</v>
       </c>
-      <c r="D111"/>
+      <c r="D111">
+        <v>0</v>
+      </c>
       <c r="E111" t="s">
         <v>39</v>
       </c>
@@ -23439,7 +23662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -23449,7 +23672,9 @@
       <c r="C112" t="s">
         <v>164</v>
       </c>
-      <c r="D112"/>
+      <c r="D112">
+        <v>0</v>
+      </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
@@ -23633,7 +23858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -23643,7 +23868,9 @@
       <c r="C113" t="s">
         <v>118</v>
       </c>
-      <c r="D113"/>
+      <c r="D113">
+        <v>0</v>
+      </c>
       <c r="E113" t="s">
         <v>220</v>
       </c>
@@ -23827,7 +24054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -23837,7 +24064,9 @@
       <c r="C114" t="s">
         <v>165</v>
       </c>
-      <c r="D114"/>
+      <c r="D114">
+        <v>0</v>
+      </c>
       <c r="E114" t="s">
         <v>39</v>
       </c>
@@ -24021,7 +24250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -24031,7 +24260,9 @@
       <c r="C115" t="s">
         <v>166</v>
       </c>
-      <c r="D115"/>
+      <c r="D115">
+        <v>0</v>
+      </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
@@ -24215,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -24225,7 +24456,9 @@
       <c r="C116" t="s">
         <v>167</v>
       </c>
-      <c r="D116"/>
+      <c r="D116">
+        <v>0</v>
+      </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
@@ -24409,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -24419,7 +24652,9 @@
       <c r="C117" t="s">
         <v>168</v>
       </c>
-      <c r="D117"/>
+      <c r="D117">
+        <v>0</v>
+      </c>
       <c r="E117" t="s">
         <v>220</v>
       </c>
@@ -24603,7 +24838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>230</v>
       </c>
@@ -24613,7 +24848,9 @@
       <c r="C118" t="s">
         <v>169</v>
       </c>
-      <c r="D118"/>
+      <c r="D118">
+        <v>0</v>
+      </c>
       <c r="E118" t="s">
         <v>474</v>
       </c>
@@ -24797,7 +25034,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>230</v>
       </c>
@@ -24807,7 +25044,9 @@
       <c r="C119" t="s">
         <v>170</v>
       </c>
-      <c r="D119"/>
+      <c r="D119">
+        <v>0</v>
+      </c>
       <c r="E119" t="s">
         <v>475</v>
       </c>
@@ -24995,7 +25234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>230</v>
       </c>
@@ -25005,7 +25244,9 @@
       <c r="C120" t="s">
         <v>117</v>
       </c>
-      <c r="D120"/>
+      <c r="D120">
+        <v>0</v>
+      </c>
       <c r="E120" t="s">
         <v>220</v>
       </c>
@@ -25189,7 +25430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -25199,7 +25440,9 @@
       <c r="C121" t="s">
         <v>171</v>
       </c>
-      <c r="D121"/>
+      <c r="D121">
+        <v>0</v>
+      </c>
       <c r="E121" t="s">
         <v>473</v>
       </c>
@@ -25385,7 +25628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -25395,7 +25638,9 @@
       <c r="C122" t="s">
         <v>172</v>
       </c>
-      <c r="D122"/>
+      <c r="D122">
+        <v>0</v>
+      </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
@@ -25579,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>230</v>
       </c>
@@ -25589,7 +25834,9 @@
       <c r="C123" t="s">
         <v>173</v>
       </c>
-      <c r="D123"/>
+      <c r="D123">
+        <v>0</v>
+      </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
@@ -25773,7 +26020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>230</v>
       </c>
@@ -25783,7 +26030,9 @@
       <c r="C124" t="s">
         <v>174</v>
       </c>
-      <c r="D124"/>
+      <c r="D124">
+        <v>0</v>
+      </c>
       <c r="E124" t="s">
         <v>39</v>
       </c>
@@ -25967,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>230</v>
       </c>
@@ -25977,7 +26226,9 @@
       <c r="C125" t="s">
         <v>175</v>
       </c>
-      <c r="D125"/>
+      <c r="D125">
+        <v>0</v>
+      </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
@@ -26161,7 +26412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>230</v>
       </c>
@@ -26171,7 +26422,9 @@
       <c r="C126" t="s">
         <v>176</v>
       </c>
-      <c r="D126"/>
+      <c r="D126">
+        <v>0</v>
+      </c>
       <c r="E126" t="s">
         <v>40</v>
       </c>
@@ -26355,7 +26608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -26365,7 +26618,9 @@
       <c r="C127" t="s">
         <v>177</v>
       </c>
-      <c r="D127"/>
+      <c r="D127">
+        <v>0</v>
+      </c>
       <c r="E127" t="s">
         <v>473</v>
       </c>
@@ -26551,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -26561,7 +26816,9 @@
       <c r="C128" t="s">
         <v>178</v>
       </c>
-      <c r="D128"/>
+      <c r="D128">
+        <v>0</v>
+      </c>
       <c r="E128" t="s">
         <v>476</v>
       </c>
@@ -26747,7 +27004,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -26757,7 +27014,9 @@
       <c r="C129" t="s">
         <v>179</v>
       </c>
-      <c r="D129"/>
+      <c r="D129">
+        <v>0</v>
+      </c>
       <c r="E129" t="s">
         <v>46</v>
       </c>
@@ -26941,7 +27200,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>82</v>
       </c>
@@ -26951,7 +27210,9 @@
       <c r="C130" t="s">
         <v>180</v>
       </c>
-      <c r="D130"/>
+      <c r="D130">
+        <v>0</v>
+      </c>
       <c r="E130" t="s">
         <v>477</v>
       </c>
@@ -27137,7 +27398,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -27147,7 +27408,9 @@
       <c r="C131" t="s">
         <v>105</v>
       </c>
-      <c r="D131"/>
+      <c r="D131">
+        <v>0</v>
+      </c>
       <c r="E131" t="s">
         <v>461</v>
       </c>
@@ -27341,7 +27604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>82</v>
       </c>
@@ -27351,7 +27614,9 @@
       <c r="C132" t="s">
         <v>117</v>
       </c>
-      <c r="D132"/>
+      <c r="D132">
+        <v>0</v>
+      </c>
       <c r="E132" t="s">
         <v>220</v>
       </c>
@@ -27535,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>82</v>
       </c>
@@ -27545,7 +27810,9 @@
       <c r="C133" t="s">
         <v>181</v>
       </c>
-      <c r="D133"/>
+      <c r="D133">
+        <v>0</v>
+      </c>
       <c r="E133" t="s">
         <v>220</v>
       </c>
@@ -27729,7 +27996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -27739,7 +28006,9 @@
       <c r="C134" t="s">
         <v>140</v>
       </c>
-      <c r="D134"/>
+      <c r="D134">
+        <v>0</v>
+      </c>
       <c r="E134" t="s">
         <v>220</v>
       </c>
@@ -27915,7 +28184,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -27925,7 +28194,9 @@
       <c r="C135" t="s">
         <v>135</v>
       </c>
-      <c r="D135"/>
+      <c r="D135">
+        <v>0</v>
+      </c>
       <c r="E135" t="s">
         <v>29</v>
       </c>
@@ -28109,7 +28380,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -28119,7 +28390,9 @@
       <c r="C136" t="s">
         <v>203</v>
       </c>
-      <c r="D136"/>
+      <c r="D136">
+        <v>0</v>
+      </c>
       <c r="E136" t="s">
         <v>220</v>
       </c>
@@ -28303,7 +28576,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -28313,7 +28586,9 @@
       <c r="C137" t="s">
         <v>204</v>
       </c>
-      <c r="D137"/>
+      <c r="D137">
+        <v>0</v>
+      </c>
       <c r="E137" t="s">
         <v>220</v>
       </c>
@@ -28497,7 +28772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -28507,7 +28782,9 @@
       <c r="C138" t="s">
         <v>205</v>
       </c>
-      <c r="D138"/>
+      <c r="D138">
+        <v>0</v>
+      </c>
       <c r="E138" t="s">
         <v>220</v>
       </c>
@@ -28691,7 +28968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -28701,7 +28978,9 @@
       <c r="C139" t="s">
         <v>206</v>
       </c>
-      <c r="D139"/>
+      <c r="D139">
+        <v>0</v>
+      </c>
       <c r="E139" t="s">
         <v>478</v>
       </c>
@@ -28887,7 +29166,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>89</v>
       </c>
@@ -28897,7 +29176,9 @@
       <c r="C140" t="s">
         <v>100</v>
       </c>
-      <c r="D140"/>
+      <c r="D140">
+        <v>0</v>
+      </c>
       <c r="E140" t="s">
         <v>220</v>
       </c>
@@ -29079,7 +29360,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>84</v>
       </c>
@@ -29089,7 +29370,9 @@
       <c r="C141" t="s">
         <v>207</v>
       </c>
-      <c r="D141"/>
+      <c r="D141">
+        <v>0</v>
+      </c>
       <c r="E141" t="s">
         <v>56</v>
       </c>
@@ -29273,7 +29556,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>84</v>
       </c>
@@ -29283,7 +29566,9 @@
       <c r="C142" t="s">
         <v>124</v>
       </c>
-      <c r="D142"/>
+      <c r="D142">
+        <v>0</v>
+      </c>
       <c r="E142" t="s">
         <v>220</v>
       </c>
@@ -29467,7 +29752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>84</v>
       </c>
@@ -29477,7 +29762,9 @@
       <c r="C143" t="s">
         <v>208</v>
       </c>
-      <c r="D143"/>
+      <c r="D143">
+        <v>0</v>
+      </c>
       <c r="E143" t="s">
         <v>52</v>
       </c>
@@ -29661,7 +29948,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>84</v>
       </c>
@@ -29671,7 +29958,9 @@
       <c r="C144" t="s">
         <v>209</v>
       </c>
-      <c r="D144"/>
+      <c r="D144">
+        <v>0</v>
+      </c>
       <c r="E144" t="s">
         <v>479</v>
       </c>
@@ -29855,7 +30144,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -29865,7 +30154,9 @@
       <c r="C145" t="s">
         <v>97</v>
       </c>
-      <c r="D145"/>
+      <c r="D145">
+        <v>0</v>
+      </c>
       <c r="E145" t="s">
         <v>220</v>
       </c>
@@ -30049,7 +30340,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>84</v>
       </c>
@@ -30059,7 +30350,9 @@
       <c r="C146" t="s">
         <v>182</v>
       </c>
-      <c r="D146"/>
+      <c r="D146">
+        <v>0</v>
+      </c>
       <c r="E146" t="s">
         <v>480</v>
       </c>
@@ -30243,7 +30536,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>84</v>
       </c>
@@ -30253,7 +30546,9 @@
       <c r="C147" t="s">
         <v>183</v>
       </c>
-      <c r="D147"/>
+      <c r="D147">
+        <v>0</v>
+      </c>
       <c r="E147" t="s">
         <v>220</v>
       </c>
@@ -30437,7 +30732,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>84</v>
       </c>
@@ -30447,7 +30742,9 @@
       <c r="C148" t="s">
         <v>184</v>
       </c>
-      <c r="D148"/>
+      <c r="D148">
+        <v>0</v>
+      </c>
       <c r="E148" t="s">
         <v>69</v>
       </c>
@@ -30631,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>84</v>
       </c>
@@ -30641,7 +30938,9 @@
       <c r="C149" t="s">
         <v>185</v>
       </c>
-      <c r="D149"/>
+      <c r="D149">
+        <v>0</v>
+      </c>
       <c r="E149" t="s">
         <v>220</v>
       </c>
@@ -30825,7 +31124,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="150" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>84</v>
       </c>
@@ -30835,7 +31134,9 @@
       <c r="C150" t="s">
         <v>145</v>
       </c>
-      <c r="D150"/>
+      <c r="D150">
+        <v>0</v>
+      </c>
       <c r="E150" t="s">
         <v>220</v>
       </c>
@@ -31019,7 +31320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>84</v>
       </c>
@@ -31029,7 +31330,9 @@
       <c r="C151" t="s">
         <v>186</v>
       </c>
-      <c r="D151"/>
+      <c r="D151">
+        <v>0</v>
+      </c>
       <c r="E151" t="s">
         <v>220</v>
       </c>
@@ -31213,7 +31516,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>84</v>
       </c>
@@ -31223,7 +31526,9 @@
       <c r="C152" t="s">
         <v>187</v>
       </c>
-      <c r="D152"/>
+      <c r="D152">
+        <v>0</v>
+      </c>
       <c r="E152" t="s">
         <v>39</v>
       </c>
@@ -31407,7 +31712,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>231</v>
       </c>
@@ -31417,7 +31722,9 @@
       <c r="C153" t="s">
         <v>97</v>
       </c>
-      <c r="D153"/>
+      <c r="D153">
+        <v>0</v>
+      </c>
       <c r="E153" t="s">
         <v>220</v>
       </c>
@@ -31601,7 +31908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>231</v>
       </c>
@@ -31611,7 +31918,9 @@
       <c r="C154" t="s">
         <v>101</v>
       </c>
-      <c r="D154"/>
+      <c r="D154">
+        <v>0</v>
+      </c>
       <c r="E154" t="s">
         <v>220</v>
       </c>
@@ -31795,7 +32104,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>231</v>
       </c>
@@ -31805,7 +32114,9 @@
       <c r="C155" t="s">
         <v>172</v>
       </c>
-      <c r="D155"/>
+      <c r="D155">
+        <v>0</v>
+      </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
@@ -31989,7 +32300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>231</v>
       </c>
@@ -31999,7 +32310,9 @@
       <c r="C156" t="s">
         <v>173</v>
       </c>
-      <c r="D156"/>
+      <c r="D156">
+        <v>0</v>
+      </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
@@ -32183,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>231</v>
       </c>
@@ -32193,7 +32506,9 @@
       <c r="C157" t="s">
         <v>175</v>
       </c>
-      <c r="D157"/>
+      <c r="D157">
+        <v>0</v>
+      </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
@@ -32377,7 +32692,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -32387,7 +32702,9 @@
       <c r="C158" t="s">
         <v>167</v>
       </c>
-      <c r="D158"/>
+      <c r="D158">
+        <v>0</v>
+      </c>
       <c r="E158" t="s">
         <v>36</v>
       </c>
@@ -32571,7 +32888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -32581,7 +32898,9 @@
       <c r="C159" t="s">
         <v>105</v>
       </c>
-      <c r="D159"/>
+      <c r="D159">
+        <v>0</v>
+      </c>
       <c r="E159" t="s">
         <v>461</v>
       </c>
@@ -32775,7 +33094,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>85</v>
       </c>
@@ -32785,7 +33104,9 @@
       <c r="C160" t="s">
         <v>188</v>
       </c>
-      <c r="D160"/>
+      <c r="D160">
+        <v>0</v>
+      </c>
       <c r="E160" t="s">
         <v>59</v>
       </c>
@@ -32969,7 +33290,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>85</v>
       </c>
@@ -32979,7 +33300,9 @@
       <c r="C161" t="s">
         <v>189</v>
       </c>
-      <c r="D161"/>
+      <c r="D161">
+        <v>0</v>
+      </c>
       <c r="E161" t="s">
         <v>481</v>
       </c>
@@ -33167,7 +33490,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>85</v>
       </c>
@@ -33177,7 +33500,9 @@
       <c r="C162" t="s">
         <v>190</v>
       </c>
-      <c r="D162"/>
+      <c r="D162">
+        <v>0</v>
+      </c>
       <c r="E162" t="s">
         <v>65</v>
       </c>
@@ -33361,7 +33686,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>85</v>
       </c>
@@ -33371,7 +33696,9 @@
       <c r="C163" t="s">
         <v>191</v>
       </c>
-      <c r="D163"/>
+      <c r="D163">
+        <v>0</v>
+      </c>
       <c r="E163" t="s">
         <v>482</v>
       </c>
@@ -33561,7 +33888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>85</v>
       </c>
@@ -33571,7 +33898,9 @@
       <c r="C164" t="s">
         <v>116</v>
       </c>
-      <c r="D164"/>
+      <c r="D164">
+        <v>0</v>
+      </c>
       <c r="E164" t="s">
         <v>59</v>
       </c>
@@ -33755,7 +34084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>85</v>
       </c>
@@ -33765,7 +34094,9 @@
       <c r="C165" t="s">
         <v>192</v>
       </c>
-      <c r="D165"/>
+      <c r="D165">
+        <v>0</v>
+      </c>
       <c r="E165" t="s">
         <v>64</v>
       </c>
@@ -33949,7 +34280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -33959,7 +34290,9 @@
       <c r="C166" t="s">
         <v>193</v>
       </c>
-      <c r="D166"/>
+      <c r="D166">
+        <v>0</v>
+      </c>
       <c r="E166" t="s">
         <v>220</v>
       </c>
@@ -34143,7 +34476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -34153,7 +34486,9 @@
       <c r="C167" t="s">
         <v>194</v>
       </c>
-      <c r="D167"/>
+      <c r="D167">
+        <v>0</v>
+      </c>
       <c r="E167" t="s">
         <v>65</v>
       </c>
@@ -34337,7 +34672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -34347,7 +34682,9 @@
       <c r="C168" t="s">
         <v>195</v>
       </c>
-      <c r="D168"/>
+      <c r="D168">
+        <v>0</v>
+      </c>
       <c r="E168" t="s">
         <v>220</v>
       </c>
@@ -34531,7 +34868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>86</v>
       </c>
@@ -34541,7 +34878,9 @@
       <c r="C169" t="s">
         <v>104</v>
       </c>
-      <c r="D169"/>
+      <c r="D169">
+        <v>0</v>
+      </c>
       <c r="E169" t="s">
         <v>220</v>
       </c>
@@ -34725,7 +35064,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>86</v>
       </c>
@@ -34735,7 +35074,9 @@
       <c r="C170" t="s">
         <v>100</v>
       </c>
-      <c r="D170"/>
+      <c r="D170">
+        <v>0</v>
+      </c>
       <c r="E170" t="s">
         <v>220</v>
       </c>
@@ -34919,7 +35260,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>86</v>
       </c>
@@ -34929,7 +35270,9 @@
       <c r="C171" t="s">
         <v>210</v>
       </c>
-      <c r="D171"/>
+      <c r="D171">
+        <v>0</v>
+      </c>
       <c r="E171" t="s">
         <v>483</v>
       </c>
@@ -35117,7 +35460,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>86</v>
       </c>
@@ -35127,7 +35470,9 @@
       <c r="C172" t="s">
         <v>99</v>
       </c>
-      <c r="D172"/>
+      <c r="D172">
+        <v>0</v>
+      </c>
       <c r="E172" t="s">
         <v>6</v>
       </c>
@@ -35311,7 +35656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>86</v>
       </c>
@@ -35321,7 +35666,9 @@
       <c r="C173" t="s">
         <v>98</v>
       </c>
-      <c r="D173"/>
+      <c r="D173">
+        <v>0</v>
+      </c>
       <c r="E173" t="s">
         <v>6</v>
       </c>
@@ -35505,7 +35852,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>86</v>
       </c>
@@ -35515,7 +35862,9 @@
       <c r="C174" t="s">
         <v>146</v>
       </c>
-      <c r="D174"/>
+      <c r="D174">
+        <v>0</v>
+      </c>
       <c r="E174" t="s">
         <v>220</v>
       </c>
@@ -35699,7 +36048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -35709,7 +36058,9 @@
       <c r="C175" t="s">
         <v>137</v>
       </c>
-      <c r="D175"/>
+      <c r="D175">
+        <v>0</v>
+      </c>
       <c r="E175" t="s">
         <v>465</v>
       </c>
@@ -35893,7 +36244,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="176" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -35903,7 +36254,9 @@
       <c r="C176" t="s">
         <v>140</v>
       </c>
-      <c r="D176"/>
+      <c r="D176">
+        <v>0</v>
+      </c>
       <c r="E176" t="s">
         <v>467</v>
       </c>
@@ -36091,7 +36444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -36101,7 +36454,9 @@
       <c r="C177" t="s">
         <v>129</v>
       </c>
-      <c r="D177"/>
+      <c r="D177">
+        <v>0</v>
+      </c>
       <c r="E177" t="s">
         <v>220</v>
       </c>
@@ -36285,7 +36640,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -36295,7 +36650,9 @@
       <c r="C178" t="s">
         <v>133</v>
       </c>
-      <c r="D178"/>
+      <c r="D178">
+        <v>0</v>
+      </c>
       <c r="E178" t="s">
         <v>220</v>
       </c>
@@ -36479,7 +36836,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -36489,7 +36846,9 @@
       <c r="C179" t="s">
         <v>211</v>
       </c>
-      <c r="D179"/>
+      <c r="D179">
+        <v>0</v>
+      </c>
       <c r="E179" t="s">
         <v>220</v>
       </c>
@@ -36673,7 +37032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -36683,7 +37042,9 @@
       <c r="C180" t="s">
         <v>184</v>
       </c>
-      <c r="D180"/>
+      <c r="D180">
+        <v>0</v>
+      </c>
       <c r="E180" t="s">
         <v>69</v>
       </c>
@@ -36867,7 +37228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -36877,7 +37238,9 @@
       <c r="C181" t="s">
         <v>116</v>
       </c>
-      <c r="D181"/>
+      <c r="D181">
+        <v>0</v>
+      </c>
       <c r="E181" t="s">
         <v>59</v>
       </c>
@@ -37061,7 +37424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -37071,7 +37434,9 @@
       <c r="C182" t="s">
         <v>139</v>
       </c>
-      <c r="D182"/>
+      <c r="D182">
+        <v>0</v>
+      </c>
       <c r="E182" t="s">
         <v>220</v>
       </c>
@@ -37255,7 +37620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>87</v>
       </c>
@@ -37265,7 +37630,9 @@
       <c r="C183" t="s">
         <v>196</v>
       </c>
-      <c r="D183"/>
+      <c r="D183">
+        <v>0</v>
+      </c>
       <c r="E183" t="s">
         <v>220</v>
       </c>
@@ -37449,7 +37816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="184" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>87</v>
       </c>
@@ -37459,7 +37826,9 @@
       <c r="C184" t="s">
         <v>129</v>
       </c>
-      <c r="D184"/>
+      <c r="D184">
+        <v>0</v>
+      </c>
       <c r="E184" t="s">
         <v>71</v>
       </c>
@@ -37643,7 +38012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>87</v>
       </c>
@@ -37653,7 +38022,9 @@
       <c r="C185" t="s">
         <v>197</v>
       </c>
-      <c r="D185"/>
+      <c r="D185">
+        <v>0</v>
+      </c>
       <c r="E185" t="s">
         <v>220</v>
       </c>
@@ -37837,7 +38208,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>87</v>
       </c>
@@ -37847,7 +38218,9 @@
       <c r="C186" t="s">
         <v>198</v>
       </c>
-      <c r="D186"/>
+      <c r="D186">
+        <v>0</v>
+      </c>
       <c r="E186" t="s">
         <v>220</v>
       </c>
@@ -38031,7 +38404,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>87</v>
       </c>
@@ -38041,7 +38414,9 @@
       <c r="C187" t="s">
         <v>199</v>
       </c>
-      <c r="D187"/>
+      <c r="D187">
+        <v>0</v>
+      </c>
       <c r="E187" t="s">
         <v>220</v>
       </c>
@@ -38225,7 +38600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>87</v>
       </c>
@@ -38235,7 +38610,9 @@
       <c r="C188" t="s">
         <v>132</v>
       </c>
-      <c r="D188"/>
+      <c r="D188">
+        <v>0</v>
+      </c>
       <c r="E188" t="s">
         <v>220</v>
       </c>
@@ -38419,7 +38796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>87</v>
       </c>
@@ -38429,7 +38806,9 @@
       <c r="C189" t="s">
         <v>146</v>
       </c>
-      <c r="D189"/>
+      <c r="D189">
+        <v>0</v>
+      </c>
       <c r="E189" t="s">
         <v>35</v>
       </c>
@@ -38613,7 +38992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>87</v>
       </c>
@@ -38623,7 +39002,9 @@
       <c r="C190" t="s">
         <v>153</v>
       </c>
-      <c r="D190"/>
+      <c r="D190">
+        <v>0</v>
+      </c>
       <c r="E190" t="s">
         <v>220</v>
       </c>
@@ -38807,7 +39188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>91</v>
       </c>
@@ -38817,7 +39198,9 @@
       <c r="C191" t="s">
         <v>133</v>
       </c>
-      <c r="D191"/>
+      <c r="D191">
+        <v>0</v>
+      </c>
       <c r="E191" t="s">
         <v>220</v>
       </c>
@@ -38994,7 +39377,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BP191" xr:uid="{6FCCA6B8-5B4A-4542-AA3A-B3DEF31EE526}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
